--- a/Pauta Parlo1 (Linea 1).xlsx
+++ b/Pauta Parlo1 (Linea 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nelson/Documents/REACT/evaluacion3/Proyecto-Evaluacion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86FC5FF2-F3C8-0049-9E23-ECC18DDC350F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE2F880-85DB-0048-92A0-62421EF2271E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="0" windowWidth="25720" windowHeight="18660" xr2:uid="{EBE3E73A-F0FB-4C1E-B847-9E1076CFD6E1}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="199">
   <si>
     <t>BLOQUES 
 DE EVALUACIÓN</t>
@@ -3251,6 +3251,15 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>QUIEBRE</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>SI</t>
   </si>
 </sst>
 </file>
@@ -4217,7 +4226,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="211">
+  <cellXfs count="212">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4632,27 +4641,51 @@
     <xf numFmtId="0" fontId="25" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4665,29 +4698,26 @@
     <xf numFmtId="0" fontId="12" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="51" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4707,15 +4737,6 @@
     <xf numFmtId="0" fontId="49" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="51" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4725,16 +4746,10 @@
     <xf numFmtId="0" fontId="51" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="71" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4785,12 +4800,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="49" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4827,6 +4836,7 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Millares [0]" xfId="1" builtinId="6"/>
@@ -4849,7 +4859,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1. Reporte de Interacción"/>
@@ -4882,7 +4892,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Hoja1"/>
@@ -4927,7 +4937,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="0. Nomina SAC"/>
@@ -5258,10 +5268,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC3EB99-ACB9-1B49-A13C-C4B026739EFC}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5274,7 +5284,7 @@
     <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="126" t="s">
         <v>195</v>
       </c>
@@ -5293,8 +5303,11 @@
       <c r="F1" s="125" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="103" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="211" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="103" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5313,8 +5326,11 @@
       <c r="F2" s="128">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="157" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="157" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5332,6 +5348,9 @@
       </c>
       <c r="F3" s="128">
         <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -5747,13 +5766,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="F3:F5"/>
@@ -5766,6 +5778,13 @@
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="F18:F19"/>
     <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5811,7 +5830,7 @@
       <c r="G2" s="27"/>
     </row>
     <row r="3" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="157" t="s">
+      <c r="B3" s="146" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="43" t="s">
@@ -5823,7 +5842,7 @@
       <c r="E3" s="41">
         <v>5</v>
       </c>
-      <c r="F3" s="151">
+      <c r="F3" s="149">
         <v>25</v>
       </c>
       <c r="G3" s="44" t="s">
@@ -5831,7 +5850,7 @@
       </c>
     </row>
     <row r="4" spans="2:7" ht="66" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="158"/>
+      <c r="B4" s="147"/>
       <c r="C4" s="43" t="s">
         <v>97</v>
       </c>
@@ -5841,11 +5860,11 @@
       <c r="E4" s="41">
         <v>5</v>
       </c>
-      <c r="F4" s="160"/>
+      <c r="F4" s="150"/>
       <c r="G4" s="27"/>
     </row>
     <row r="5" spans="2:7" ht="66" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="159"/>
+      <c r="B5" s="148"/>
       <c r="C5" s="43" t="s">
         <v>95</v>
       </c>
@@ -5855,11 +5874,11 @@
       <c r="E5" s="41">
         <v>15</v>
       </c>
-      <c r="F5" s="152"/>
+      <c r="F5" s="151"/>
       <c r="G5" s="27"/>
     </row>
     <row r="6" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="161" t="s">
+      <c r="B6" s="152" t="s">
         <v>93</v>
       </c>
       <c r="C6" s="43" t="s">
@@ -5871,13 +5890,13 @@
       <c r="E6" s="45">
         <v>10</v>
       </c>
-      <c r="F6" s="147">
+      <c r="F6" s="155">
         <v>25</v>
       </c>
       <c r="G6" s="27"/>
     </row>
     <row r="7" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="162"/>
+      <c r="B7" s="153"/>
       <c r="C7" s="43" t="s">
         <v>90</v>
       </c>
@@ -5887,11 +5906,11 @@
       <c r="E7" s="45">
         <v>10</v>
       </c>
-      <c r="F7" s="164"/>
+      <c r="F7" s="156"/>
       <c r="G7" s="27"/>
     </row>
     <row r="8" spans="2:7" ht="40" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="163"/>
+      <c r="B8" s="154"/>
       <c r="C8" s="43" t="s">
         <v>88</v>
       </c>
@@ -5901,11 +5920,11 @@
       <c r="E8" s="45">
         <v>5</v>
       </c>
-      <c r="F8" s="148"/>
+      <c r="F8" s="157"/>
       <c r="G8" s="27"/>
     </row>
     <row r="9" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="161" t="s">
+      <c r="B9" s="152" t="s">
         <v>86</v>
       </c>
       <c r="C9" s="43" t="s">
@@ -5917,13 +5936,13 @@
       <c r="E9" s="41">
         <v>4</v>
       </c>
-      <c r="F9" s="151">
+      <c r="F9" s="149">
         <v>21</v>
       </c>
       <c r="G9" s="27"/>
     </row>
     <row r="10" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="162"/>
+      <c r="B10" s="153"/>
       <c r="C10" s="43" t="s">
         <v>83</v>
       </c>
@@ -5933,11 +5952,11 @@
       <c r="E10" s="41">
         <v>5</v>
       </c>
-      <c r="F10" s="160"/>
+      <c r="F10" s="150"/>
       <c r="G10" s="27"/>
     </row>
     <row r="11" spans="2:7" ht="40" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="162"/>
+      <c r="B11" s="153"/>
       <c r="C11" s="43" t="s">
         <v>81</v>
       </c>
@@ -5947,11 +5966,11 @@
       <c r="E11" s="41">
         <v>6</v>
       </c>
-      <c r="F11" s="160"/>
+      <c r="F11" s="150"/>
       <c r="G11" s="27"/>
     </row>
     <row r="12" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="163"/>
+      <c r="B12" s="154"/>
       <c r="C12" s="43" t="s">
         <v>79</v>
       </c>
@@ -5961,7 +5980,7 @@
       <c r="E12" s="41">
         <v>6</v>
       </c>
-      <c r="F12" s="152"/>
+      <c r="F12" s="151"/>
       <c r="G12" s="27"/>
     </row>
     <row r="13" spans="2:7" ht="66" thickBot="1" x14ac:dyDescent="0.25">
@@ -5977,7 +5996,7 @@
       <c r="E13" s="45">
         <v>5</v>
       </c>
-      <c r="F13" s="147">
+      <c r="F13" s="155">
         <v>20</v>
       </c>
       <c r="G13" s="44" t="s">
@@ -5995,11 +6014,11 @@
       <c r="E14" s="45">
         <v>15</v>
       </c>
-      <c r="F14" s="148"/>
+      <c r="F14" s="157"/>
       <c r="G14" s="27"/>
     </row>
     <row r="15" spans="2:7" ht="66" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="149" t="s">
+      <c r="B15" s="159" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="43" t="s">
@@ -6011,7 +6030,7 @@
       <c r="E15" s="41">
         <v>5</v>
       </c>
-      <c r="F15" s="151">
+      <c r="F15" s="149">
         <v>9</v>
       </c>
       <c r="G15" s="44" t="s">
@@ -6019,7 +6038,7 @@
       </c>
     </row>
     <row r="16" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="150"/>
+      <c r="B16" s="160"/>
       <c r="C16" s="43" t="s">
         <v>70</v>
       </c>
@@ -6029,7 +6048,7 @@
       <c r="E16" s="41">
         <v>4</v>
       </c>
-      <c r="F16" s="152"/>
+      <c r="F16" s="151"/>
       <c r="G16" s="40"/>
     </row>
     <row r="17" spans="2:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -6041,7 +6060,7 @@
       <c r="G17" s="27"/>
     </row>
     <row r="18" spans="2:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="153" t="s">
+      <c r="B18" s="161" t="s">
         <v>38</v>
       </c>
       <c r="C18" s="36" t="s">
@@ -6053,13 +6072,13 @@
       <c r="E18" s="38">
         <v>5</v>
       </c>
-      <c r="F18" s="155">
+      <c r="F18" s="163">
         <v>10</v>
       </c>
       <c r="G18" s="27"/>
     </row>
     <row r="19" spans="2:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="154"/>
+      <c r="B19" s="162"/>
       <c r="C19" s="36" t="s">
         <v>41</v>
       </c>
@@ -6069,7 +6088,7 @@
       <c r="E19" s="38">
         <v>5</v>
       </c>
-      <c r="F19" s="156"/>
+      <c r="F19" s="164"/>
       <c r="G19" s="27"/>
     </row>
     <row r="20" spans="2:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -6121,11 +6140,11 @@
       <c r="N22" s="29"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B23" s="146" t="s">
+      <c r="B23" s="158" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="146"/>
-      <c r="D23" s="146"/>
+      <c r="C23" s="158"/>
+      <c r="D23" s="158"/>
       <c r="E23" s="29"/>
       <c r="F23" s="29"/>
       <c r="G23" s="29"/>
@@ -6416,18 +6435,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="F18:F19"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="F3:F5"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="F6:F8"/>
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="F9:F12"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="F18:F19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6490,7 +6509,7 @@
       <c r="G3" s="70"/>
     </row>
     <row r="4" spans="2:7" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="165" t="s">
+      <c r="B4" s="172" t="s">
         <v>128</v>
       </c>
       <c r="C4" s="43" t="s">
@@ -6505,12 +6524,12 @@
       <c r="F4" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="167" t="s">
+      <c r="G4" s="174" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="166"/>
+      <c r="B5" s="173"/>
       <c r="C5" s="43" t="s">
         <v>131</v>
       </c>
@@ -6523,10 +6542,10 @@
       <c r="F5" s="73">
         <v>15</v>
       </c>
-      <c r="G5" s="167"/>
+      <c r="G5" s="174"/>
     </row>
     <row r="6" spans="2:7" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="166"/>
+      <c r="B6" s="173"/>
       <c r="C6" s="43" t="s">
         <v>72</v>
       </c>
@@ -6539,10 +6558,10 @@
       <c r="F6" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="167"/>
+      <c r="G6" s="174"/>
     </row>
     <row r="7" spans="2:7" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="168" t="s">
+      <c r="B7" s="175" t="s">
         <v>93</v>
       </c>
       <c r="C7" s="43" t="s">
@@ -6554,13 +6573,13 @@
       <c r="E7" s="69">
         <v>10</v>
       </c>
-      <c r="F7" s="171">
+      <c r="F7" s="168">
         <v>25</v>
       </c>
       <c r="G7" s="70"/>
     </row>
     <row r="8" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="169"/>
+      <c r="B8" s="176"/>
       <c r="C8" s="43" t="s">
         <v>90</v>
       </c>
@@ -6570,11 +6589,11 @@
       <c r="E8" s="69">
         <v>10</v>
       </c>
-      <c r="F8" s="172"/>
+      <c r="F8" s="169"/>
       <c r="G8" s="70"/>
     </row>
     <row r="9" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="170"/>
+      <c r="B9" s="177"/>
       <c r="C9" s="43" t="s">
         <v>88</v>
       </c>
@@ -6584,11 +6603,11 @@
       <c r="E9" s="69">
         <v>5</v>
       </c>
-      <c r="F9" s="173"/>
+      <c r="F9" s="170"/>
       <c r="G9" s="70"/>
     </row>
     <row r="10" spans="2:7" ht="81.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="169" t="s">
+      <c r="B10" s="176" t="s">
         <v>77</v>
       </c>
       <c r="C10" s="43" t="s">
@@ -6600,13 +6619,13 @@
       <c r="E10" s="77">
         <v>8</v>
       </c>
-      <c r="F10" s="174">
+      <c r="F10" s="178">
         <v>36</v>
       </c>
       <c r="G10" s="70"/>
     </row>
     <row r="11" spans="2:7" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="169"/>
+      <c r="B11" s="176"/>
       <c r="C11" s="43" t="s">
         <v>139</v>
       </c>
@@ -6616,11 +6635,11 @@
       <c r="E11" s="77">
         <v>8</v>
       </c>
-      <c r="F11" s="175"/>
+      <c r="F11" s="179"/>
       <c r="G11" s="70"/>
     </row>
     <row r="12" spans="2:7" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="169"/>
+      <c r="B12" s="176"/>
       <c r="C12" s="43" t="s">
         <v>141</v>
       </c>
@@ -6630,11 +6649,11 @@
       <c r="E12" s="77">
         <v>15</v>
       </c>
-      <c r="F12" s="175"/>
+      <c r="F12" s="179"/>
       <c r="G12" s="70"/>
     </row>
     <row r="13" spans="2:7" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="170"/>
+      <c r="B13" s="177"/>
       <c r="C13" s="43" t="s">
         <v>30</v>
       </c>
@@ -6644,11 +6663,11 @@
       <c r="E13" s="77">
         <v>5</v>
       </c>
-      <c r="F13" s="176"/>
+      <c r="F13" s="180"/>
       <c r="G13" s="70"/>
     </row>
     <row r="14" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="178" t="s">
+      <c r="B14" s="166" t="s">
         <v>86</v>
       </c>
       <c r="C14" s="43" t="s">
@@ -6660,13 +6679,13 @@
       <c r="E14" s="69">
         <v>5</v>
       </c>
-      <c r="F14" s="171">
+      <c r="F14" s="168">
         <v>15</v>
       </c>
       <c r="G14" s="70"/>
     </row>
     <row r="15" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="178"/>
+      <c r="B15" s="166"/>
       <c r="C15" s="43" t="s">
         <v>145</v>
       </c>
@@ -6676,11 +6695,11 @@
       <c r="E15" s="69">
         <v>5</v>
       </c>
-      <c r="F15" s="172"/>
+      <c r="F15" s="169"/>
       <c r="G15" s="70"/>
     </row>
     <row r="16" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="179"/>
+      <c r="B16" s="167"/>
       <c r="C16" s="43" t="s">
         <v>79</v>
       </c>
@@ -6690,7 +6709,7 @@
       <c r="E16" s="69">
         <v>5</v>
       </c>
-      <c r="F16" s="173"/>
+      <c r="F16" s="170"/>
       <c r="G16" s="70"/>
     </row>
     <row r="17" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -6746,56 +6765,62 @@
       <c r="G20" s="70"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="146" t="s">
+      <c r="B21" s="158" t="s">
         <v>150</v>
       </c>
-      <c r="C21" s="146"/>
-      <c r="D21" s="146"/>
+      <c r="C21" s="158"/>
+      <c r="D21" s="158"/>
     </row>
     <row r="22" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="180" t="s">
+      <c r="B22" s="171" t="s">
         <v>151</v>
       </c>
-      <c r="C22" s="180"/>
-      <c r="D22" s="180"/>
+      <c r="C22" s="171"/>
+      <c r="D22" s="171"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B23" s="177" t="s">
+      <c r="B23" s="165" t="s">
         <v>152</v>
       </c>
-      <c r="C23" s="177"/>
-      <c r="D23" s="177"/>
+      <c r="C23" s="165"/>
+      <c r="D23" s="165"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B24" s="177" t="s">
+      <c r="B24" s="165" t="s">
         <v>153</v>
       </c>
-      <c r="C24" s="177"/>
-      <c r="D24" s="177"/>
+      <c r="C24" s="165"/>
+      <c r="D24" s="165"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B25" s="177" t="s">
+      <c r="B25" s="165" t="s">
         <v>154</v>
       </c>
-      <c r="C25" s="177"/>
-      <c r="D25" s="177"/>
+      <c r="C25" s="165"/>
+      <c r="D25" s="165"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B26" s="177" t="s">
+      <c r="B26" s="165" t="s">
         <v>155</v>
       </c>
-      <c r="C26" s="177"/>
-      <c r="D26" s="177"/>
+      <c r="C26" s="165"/>
+      <c r="D26" s="165"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B27" s="177" t="s">
+      <c r="B27" s="165" t="s">
         <v>156</v>
       </c>
-      <c r="C27" s="177"/>
-      <c r="D27" s="177"/>
+      <c r="C27" s="165"/>
+      <c r="D27" s="165"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="F10:F13"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B27:D27"/>
@@ -6805,12 +6830,6 @@
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="F10:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6871,7 +6890,7 @@
       </c>
     </row>
     <row r="4" spans="2:7" ht="24.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="181" t="s">
+      <c r="B4" s="183" t="s">
         <v>174</v>
       </c>
       <c r="C4" s="43" t="s">
@@ -6883,15 +6902,15 @@
       <c r="E4" s="96">
         <v>7</v>
       </c>
-      <c r="F4" s="183">
+      <c r="F4" s="185">
         <v>15</v>
       </c>
-      <c r="G4" s="167" t="s">
+      <c r="G4" s="174" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="79" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="182"/>
+      <c r="B5" s="184"/>
       <c r="C5" s="97" t="s">
         <v>72</v>
       </c>
@@ -6901,11 +6920,11 @@
       <c r="E5" s="98">
         <v>8</v>
       </c>
-      <c r="F5" s="184"/>
-      <c r="G5" s="167"/>
+      <c r="F5" s="186"/>
+      <c r="G5" s="174"/>
     </row>
     <row r="6" spans="2:7" ht="40" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="165" t="s">
+      <c r="B6" s="172" t="s">
         <v>177</v>
       </c>
       <c r="C6" s="99" t="s">
@@ -6917,12 +6936,12 @@
       <c r="E6" s="101">
         <v>10</v>
       </c>
-      <c r="F6" s="186">
+      <c r="F6" s="188">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="166"/>
+      <c r="B7" s="173"/>
       <c r="C7" s="102" t="s">
         <v>90</v>
       </c>
@@ -6932,10 +6951,10 @@
       <c r="E7" s="101">
         <v>10</v>
       </c>
-      <c r="F7" s="187"/>
+      <c r="F7" s="189"/>
     </row>
     <row r="8" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="185"/>
+      <c r="B8" s="187"/>
       <c r="C8" s="102" t="s">
         <v>88</v>
       </c>
@@ -6945,10 +6964,10 @@
       <c r="E8" s="101">
         <v>5</v>
       </c>
-      <c r="F8" s="188"/>
+      <c r="F8" s="190"/>
     </row>
     <row r="9" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="189" t="s">
+      <c r="B9" s="191" t="s">
         <v>178</v>
       </c>
       <c r="C9" s="97" t="s">
@@ -6957,26 +6976,26 @@
       <c r="D9" s="95" t="s">
         <v>180</v>
       </c>
-      <c r="E9" s="192">
+      <c r="E9" s="194">
         <v>15</v>
       </c>
-      <c r="F9" s="192">
+      <c r="F9" s="194">
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="92" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="190"/>
+      <c r="B10" s="192"/>
       <c r="C10" s="97" t="s">
         <v>181</v>
       </c>
       <c r="D10" s="95" t="s">
         <v>182</v>
       </c>
-      <c r="E10" s="193"/>
-      <c r="F10" s="194"/>
+      <c r="E10" s="195"/>
+      <c r="F10" s="196"/>
     </row>
     <row r="11" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="190"/>
+      <c r="B11" s="192"/>
       <c r="C11" s="43" t="s">
         <v>141</v>
       </c>
@@ -6986,10 +7005,10 @@
       <c r="E11" s="104">
         <v>15</v>
       </c>
-      <c r="F11" s="194"/>
+      <c r="F11" s="196"/>
     </row>
     <row r="12" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="191"/>
+      <c r="B12" s="193"/>
       <c r="C12" s="43" t="s">
         <v>30</v>
       </c>
@@ -6999,10 +7018,10 @@
       <c r="E12" s="96">
         <v>5</v>
       </c>
-      <c r="F12" s="193"/>
+      <c r="F12" s="195"/>
     </row>
     <row r="13" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="181" t="s">
+      <c r="B13" s="183" t="s">
         <v>86</v>
       </c>
       <c r="C13" s="102" t="s">
@@ -7014,12 +7033,12 @@
       <c r="E13" s="105">
         <v>4</v>
       </c>
-      <c r="F13" s="186">
+      <c r="F13" s="188">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="195"/>
+      <c r="B14" s="197"/>
       <c r="C14" s="102" t="s">
         <v>83</v>
       </c>
@@ -7029,10 +7048,10 @@
       <c r="E14" s="105">
         <v>4</v>
       </c>
-      <c r="F14" s="187"/>
+      <c r="F14" s="189"/>
     </row>
     <row r="15" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="195"/>
+      <c r="B15" s="197"/>
       <c r="C15" s="102" t="s">
         <v>81</v>
       </c>
@@ -7042,10 +7061,10 @@
       <c r="E15" s="105">
         <v>4</v>
       </c>
-      <c r="F15" s="187"/>
+      <c r="F15" s="189"/>
     </row>
     <row r="16" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="196"/>
+      <c r="B16" s="198"/>
       <c r="C16" s="99" t="s">
         <v>79</v>
       </c>
@@ -7055,7 +7074,7 @@
       <c r="E16" s="105">
         <v>4</v>
       </c>
-      <c r="F16" s="188"/>
+      <c r="F16" s="190"/>
     </row>
     <row r="17" spans="2:9" ht="92" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="107" t="s">
@@ -7127,88 +7146,88 @@
       <c r="F22" s="111"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B23" s="146" t="s">
+      <c r="B23" s="158" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="146"/>
-      <c r="D23" s="146"/>
+      <c r="C23" s="158"/>
+      <c r="D23" s="158"/>
       <c r="E23" s="110"/>
       <c r="F23" s="111"/>
     </row>
     <row r="24" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="180" t="s">
+      <c r="B24" s="171" t="s">
         <v>151</v>
       </c>
-      <c r="C24" s="180"/>
-      <c r="D24" s="180"/>
+      <c r="C24" s="171"/>
+      <c r="D24" s="171"/>
       <c r="E24" s="115"/>
       <c r="F24" s="115"/>
       <c r="G24" s="116"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B25" s="177" t="s">
+      <c r="B25" s="165" t="s">
         <v>188</v>
       </c>
-      <c r="C25" s="177"/>
-      <c r="D25" s="177"/>
+      <c r="C25" s="165"/>
+      <c r="D25" s="165"/>
       <c r="E25" s="110"/>
       <c r="F25" s="111"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B26" s="177" t="s">
+      <c r="B26" s="165" t="s">
         <v>153</v>
       </c>
-      <c r="C26" s="177"/>
-      <c r="D26" s="177"/>
+      <c r="C26" s="165"/>
+      <c r="D26" s="165"/>
       <c r="E26" s="110"/>
       <c r="F26" s="111"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B27" s="177" t="s">
+      <c r="B27" s="165" t="s">
         <v>154</v>
       </c>
-      <c r="C27" s="177"/>
-      <c r="D27" s="177"/>
+      <c r="C27" s="165"/>
+      <c r="D27" s="165"/>
       <c r="E27" s="110"/>
       <c r="F27" s="111"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B28" s="177" t="s">
+      <c r="B28" s="165" t="s">
         <v>155</v>
       </c>
-      <c r="C28" s="177"/>
-      <c r="D28" s="177"/>
+      <c r="C28" s="165"/>
+      <c r="D28" s="165"/>
       <c r="E28" s="110"/>
       <c r="F28" s="111"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B29" s="177" t="s">
+      <c r="B29" s="165" t="s">
         <v>156</v>
       </c>
-      <c r="C29" s="177"/>
-      <c r="D29" s="177"/>
+      <c r="C29" s="165"/>
+      <c r="D29" s="165"/>
       <c r="E29" s="110"/>
       <c r="F29" s="111"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B30" s="197"/>
-      <c r="C30" s="197"/>
-      <c r="D30" s="197"/>
-      <c r="E30" s="197"/>
-      <c r="F30" s="197"/>
-      <c r="G30" s="197"/>
-      <c r="H30" s="197"/>
-      <c r="I30" s="197"/>
+      <c r="B30" s="181"/>
+      <c r="C30" s="181"/>
+      <c r="D30" s="181"/>
+      <c r="E30" s="181"/>
+      <c r="F30" s="181"/>
+      <c r="G30" s="181"/>
+      <c r="H30" s="181"/>
+      <c r="I30" s="181"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B31" s="198"/>
-      <c r="C31" s="198"/>
-      <c r="D31" s="198"/>
-      <c r="E31" s="198"/>
-      <c r="F31" s="198"/>
-      <c r="G31" s="198"/>
-      <c r="H31" s="198"/>
-      <c r="I31" s="198"/>
+      <c r="B31" s="182"/>
+      <c r="C31" s="182"/>
+      <c r="D31" s="182"/>
+      <c r="E31" s="182"/>
+      <c r="F31" s="182"/>
+      <c r="G31" s="182"/>
+      <c r="H31" s="182"/>
+      <c r="I31" s="182"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B32" s="117"/>
@@ -7403,11 +7422,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="B31:I31"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="F4:F5"/>
@@ -7422,6 +7436,11 @@
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="B31:I31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Pauta Parlo1 (Linea 1).xlsx
+++ b/Pauta Parlo1 (Linea 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nelson/Documents/REACT/evaluacion3/Proyecto-Evaluacion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE2F880-85DB-0048-92A0-62421EF2271E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95DCCA65-2990-5442-81FB-0D650E50597D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="0" windowWidth="25720" windowHeight="18660" xr2:uid="{EBE3E73A-F0FB-4C1E-B847-9E1076CFD6E1}"/>
   </bookViews>
@@ -4590,6 +4590,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4641,6 +4642,39 @@
     <xf numFmtId="0" fontId="25" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4650,15 +4684,9 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4668,34 +4696,43 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4707,44 +4744,56 @@
     <xf numFmtId="0" fontId="49" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="51" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="70" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4752,54 +4801,6 @@
     <xf numFmtId="0" fontId="71" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="49" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4836,7 +4837,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Millares [0]" xfId="1" builtinId="6"/>
@@ -5270,8 +5270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC3EB99-ACB9-1B49-A13C-C4B026739EFC}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5303,7 +5303,7 @@
       <c r="F1" s="125" t="s">
         <v>192</v>
       </c>
-      <c r="G1" s="211" t="s">
+      <c r="G1" s="129" t="s">
         <v>196</v>
       </c>
     </row>
@@ -5321,7 +5321,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="8">
-        <v>0.06</v>
+        <v>0.6</v>
       </c>
       <c r="F2" s="128">
         <v>1</v>
@@ -5344,7 +5344,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="8">
-        <v>0.04</v>
+        <v>0.4</v>
       </c>
       <c r="F3" s="128">
         <v>1</v>
@@ -5396,7 +5396,7 @@
       </c>
     </row>
     <row r="3" spans="2:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="130" t="s">
+      <c r="B3" s="131" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -5408,7 +5408,7 @@
       <c r="E3" s="8">
         <v>0.06</v>
       </c>
-      <c r="F3" s="132">
+      <c r="F3" s="133">
         <v>0.2</v>
       </c>
       <c r="G3" s="9" t="s">
@@ -5416,7 +5416,7 @@
       </c>
     </row>
     <row r="4" spans="2:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="131"/>
+      <c r="B4" s="132"/>
       <c r="C4" s="6" t="s">
         <v>9</v>
       </c>
@@ -5426,10 +5426,10 @@
       <c r="E4" s="8">
         <v>0.04</v>
       </c>
-      <c r="F4" s="133"/>
+      <c r="F4" s="134"/>
     </row>
     <row r="5" spans="2:7" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="131"/>
+      <c r="B5" s="132"/>
       <c r="C5" s="6" t="s">
         <v>11</v>
       </c>
@@ -5439,10 +5439,10 @@
       <c r="E5" s="8">
         <v>0.1</v>
       </c>
-      <c r="F5" s="134"/>
+      <c r="F5" s="135"/>
     </row>
     <row r="6" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="130" t="s">
+      <c r="B6" s="131" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -5454,12 +5454,12 @@
       <c r="E6" s="12">
         <v>0.12</v>
       </c>
-      <c r="F6" s="136">
+      <c r="F6" s="137">
         <v>0.3</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="131"/>
+      <c r="B7" s="132"/>
       <c r="C7" s="6" t="s">
         <v>16</v>
       </c>
@@ -5469,10 +5469,10 @@
       <c r="E7" s="12">
         <v>0.08</v>
       </c>
-      <c r="F7" s="137"/>
+      <c r="F7" s="138"/>
     </row>
     <row r="8" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="131"/>
+      <c r="B8" s="132"/>
       <c r="C8" s="6" t="s">
         <v>18</v>
       </c>
@@ -5482,10 +5482,10 @@
       <c r="E8" s="12">
         <v>0.05</v>
       </c>
-      <c r="F8" s="137"/>
+      <c r="F8" s="138"/>
     </row>
     <row r="9" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="135"/>
+      <c r="B9" s="136"/>
       <c r="C9" s="6" t="s">
         <v>20</v>
       </c>
@@ -5495,10 +5495,10 @@
       <c r="E9" s="12">
         <v>0.05</v>
       </c>
-      <c r="F9" s="138"/>
+      <c r="F9" s="139"/>
     </row>
     <row r="10" spans="2:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="139" t="s">
+      <c r="B10" s="140" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -5510,12 +5510,12 @@
       <c r="E10" s="8">
         <v>0.12</v>
       </c>
-      <c r="F10" s="132">
+      <c r="F10" s="133">
         <v>0.3</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="140"/>
+      <c r="B11" s="141"/>
       <c r="C11" s="6" t="s">
         <v>25</v>
       </c>
@@ -5525,13 +5525,13 @@
       <c r="E11" s="8">
         <v>0.1</v>
       </c>
-      <c r="F11" s="133"/>
+      <c r="F11" s="134"/>
       <c r="G11" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="140"/>
+      <c r="B12" s="141"/>
       <c r="C12" s="6" t="s">
         <v>27</v>
       </c>
@@ -5541,10 +5541,10 @@
       <c r="E12" s="8">
         <v>0.08</v>
       </c>
-      <c r="F12" s="134"/>
+      <c r="F12" s="135"/>
     </row>
     <row r="13" spans="2:7" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="130" t="s">
+      <c r="B13" s="131" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -5556,12 +5556,12 @@
       <c r="E13" s="12">
         <v>0.06</v>
       </c>
-      <c r="F13" s="136">
+      <c r="F13" s="137">
         <v>0.2</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="38" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="131"/>
+      <c r="B14" s="132"/>
       <c r="C14" s="6" t="s">
         <v>32</v>
       </c>
@@ -5571,10 +5571,10 @@
       <c r="E14" s="12">
         <v>0.03</v>
       </c>
-      <c r="F14" s="137"/>
+      <c r="F14" s="138"/>
     </row>
     <row r="15" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="131"/>
+      <c r="B15" s="132"/>
       <c r="C15" s="6" t="s">
         <v>34</v>
       </c>
@@ -5584,10 +5584,10 @@
       <c r="E15" s="12">
         <v>0.03</v>
       </c>
-      <c r="F15" s="137"/>
+      <c r="F15" s="138"/>
     </row>
     <row r="16" spans="2:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="131"/>
+      <c r="B16" s="132"/>
       <c r="C16" s="6" t="s">
         <v>36</v>
       </c>
@@ -5597,7 +5597,7 @@
       <c r="E16" s="12">
         <v>0.08</v>
       </c>
-      <c r="F16" s="138"/>
+      <c r="F16" s="139"/>
       <c r="G16" s="9" t="s">
         <v>8</v>
       </c>
@@ -5610,7 +5610,7 @@
       <c r="F17" s="16"/>
     </row>
     <row r="18" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="141" t="s">
+      <c r="B18" s="142" t="s">
         <v>38</v>
       </c>
       <c r="C18" s="17" t="s">
@@ -5622,12 +5622,12 @@
       <c r="E18" s="19">
         <v>0.05</v>
       </c>
-      <c r="F18" s="143">
+      <c r="F18" s="144">
         <v>0.1</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="142"/>
+      <c r="B19" s="143"/>
       <c r="C19" s="17" t="s">
         <v>41</v>
       </c>
@@ -5637,7 +5637,7 @@
       <c r="E19" s="21">
         <v>0.05</v>
       </c>
-      <c r="F19" s="144"/>
+      <c r="F19" s="145"/>
     </row>
     <row r="20" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -5658,11 +5658,11 @@
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B23" s="145" t="s">
+      <c r="B23" s="146" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="145"/>
-      <c r="D23" s="145" t="s">
+      <c r="C23" s="146"/>
+      <c r="D23" s="146" t="s">
         <v>47</v>
       </c>
       <c r="E23" s="2" t="s">
@@ -5673,11 +5673,11 @@
       </c>
     </row>
     <row r="24" spans="2:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="129" t="s">
+      <c r="B24" s="130" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="129"/>
-      <c r="D24" s="129"/>
+      <c r="C24" s="130"/>
+      <c r="D24" s="130"/>
       <c r="E24" s="2" t="s">
         <v>47</v>
       </c>
@@ -5686,11 +5686,11 @@
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B25" s="129" t="s">
+      <c r="B25" s="130" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="129"/>
-      <c r="D25" s="129"/>
+      <c r="C25" s="130"/>
+      <c r="D25" s="130"/>
       <c r="E25" s="2" t="s">
         <v>47</v>
       </c>
@@ -5699,11 +5699,11 @@
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B26" s="129" t="s">
+      <c r="B26" s="130" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="129"/>
-      <c r="D26" s="129"/>
+      <c r="C26" s="130"/>
+      <c r="D26" s="130"/>
       <c r="E26" s="2" t="s">
         <v>47</v>
       </c>
@@ -5712,11 +5712,11 @@
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B27" s="129" t="s">
+      <c r="B27" s="130" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="129"/>
-      <c r="D27" s="129"/>
+      <c r="C27" s="130"/>
+      <c r="D27" s="130"/>
       <c r="E27" s="2" t="s">
         <v>47</v>
       </c>
@@ -5725,11 +5725,11 @@
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B28" s="129" t="s">
+      <c r="B28" s="130" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="129"/>
-      <c r="D28" s="129"/>
+      <c r="C28" s="130"/>
+      <c r="D28" s="130"/>
       <c r="E28" s="2" t="s">
         <v>47</v>
       </c>
@@ -5738,11 +5738,11 @@
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B29" s="129" t="s">
+      <c r="B29" s="130" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="129"/>
-      <c r="D29" s="129"/>
+      <c r="C29" s="130"/>
+      <c r="D29" s="130"/>
       <c r="E29" s="2" t="s">
         <v>47</v>
       </c>
@@ -5751,21 +5751,28 @@
       </c>
     </row>
     <row r="30" spans="2:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="129" t="s">
+      <c r="B30" s="130" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="129"/>
-      <c r="D30" s="129"/>
+      <c r="C30" s="130"/>
+      <c r="D30" s="130"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B31" s="129" t="s">
+      <c r="B31" s="130" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="129"/>
-      <c r="D31" s="129"/>
+      <c r="C31" s="130"/>
+      <c r="D31" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="F3:F5"/>
@@ -5778,13 +5785,6 @@
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="F18:F19"/>
     <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5830,7 +5830,7 @@
       <c r="G2" s="27"/>
     </row>
     <row r="3" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="146" t="s">
+      <c r="B3" s="158" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="43" t="s">
@@ -5842,7 +5842,7 @@
       <c r="E3" s="41">
         <v>5</v>
       </c>
-      <c r="F3" s="149">
+      <c r="F3" s="152">
         <v>25</v>
       </c>
       <c r="G3" s="44" t="s">
@@ -5850,7 +5850,7 @@
       </c>
     </row>
     <row r="4" spans="2:7" ht="66" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="147"/>
+      <c r="B4" s="159"/>
       <c r="C4" s="43" t="s">
         <v>97</v>
       </c>
@@ -5860,11 +5860,11 @@
       <c r="E4" s="41">
         <v>5</v>
       </c>
-      <c r="F4" s="150"/>
+      <c r="F4" s="161"/>
       <c r="G4" s="27"/>
     </row>
     <row r="5" spans="2:7" ht="66" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="148"/>
+      <c r="B5" s="160"/>
       <c r="C5" s="43" t="s">
         <v>95</v>
       </c>
@@ -5874,11 +5874,11 @@
       <c r="E5" s="41">
         <v>15</v>
       </c>
-      <c r="F5" s="151"/>
+      <c r="F5" s="153"/>
       <c r="G5" s="27"/>
     </row>
     <row r="6" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="152" t="s">
+      <c r="B6" s="162" t="s">
         <v>93</v>
       </c>
       <c r="C6" s="43" t="s">
@@ -5890,13 +5890,13 @@
       <c r="E6" s="45">
         <v>10</v>
       </c>
-      <c r="F6" s="155">
+      <c r="F6" s="148">
         <v>25</v>
       </c>
       <c r="G6" s="27"/>
     </row>
     <row r="7" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="153"/>
+      <c r="B7" s="163"/>
       <c r="C7" s="43" t="s">
         <v>90</v>
       </c>
@@ -5906,11 +5906,11 @@
       <c r="E7" s="45">
         <v>10</v>
       </c>
-      <c r="F7" s="156"/>
+      <c r="F7" s="165"/>
       <c r="G7" s="27"/>
     </row>
     <row r="8" spans="2:7" ht="40" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="154"/>
+      <c r="B8" s="164"/>
       <c r="C8" s="43" t="s">
         <v>88</v>
       </c>
@@ -5920,11 +5920,11 @@
       <c r="E8" s="45">
         <v>5</v>
       </c>
-      <c r="F8" s="157"/>
+      <c r="F8" s="149"/>
       <c r="G8" s="27"/>
     </row>
     <row r="9" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="152" t="s">
+      <c r="B9" s="162" t="s">
         <v>86</v>
       </c>
       <c r="C9" s="43" t="s">
@@ -5936,13 +5936,13 @@
       <c r="E9" s="41">
         <v>4</v>
       </c>
-      <c r="F9" s="149">
+      <c r="F9" s="152">
         <v>21</v>
       </c>
       <c r="G9" s="27"/>
     </row>
     <row r="10" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="153"/>
+      <c r="B10" s="163"/>
       <c r="C10" s="43" t="s">
         <v>83</v>
       </c>
@@ -5952,11 +5952,11 @@
       <c r="E10" s="41">
         <v>5</v>
       </c>
-      <c r="F10" s="150"/>
+      <c r="F10" s="161"/>
       <c r="G10" s="27"/>
     </row>
     <row r="11" spans="2:7" ht="40" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="153"/>
+      <c r="B11" s="163"/>
       <c r="C11" s="43" t="s">
         <v>81</v>
       </c>
@@ -5966,11 +5966,11 @@
       <c r="E11" s="41">
         <v>6</v>
       </c>
-      <c r="F11" s="150"/>
+      <c r="F11" s="161"/>
       <c r="G11" s="27"/>
     </row>
     <row r="12" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="154"/>
+      <c r="B12" s="164"/>
       <c r="C12" s="43" t="s">
         <v>79</v>
       </c>
@@ -5980,7 +5980,7 @@
       <c r="E12" s="41">
         <v>6</v>
       </c>
-      <c r="F12" s="151"/>
+      <c r="F12" s="153"/>
       <c r="G12" s="27"/>
     </row>
     <row r="13" spans="2:7" ht="66" thickBot="1" x14ac:dyDescent="0.25">
@@ -5996,7 +5996,7 @@
       <c r="E13" s="45">
         <v>5</v>
       </c>
-      <c r="F13" s="155">
+      <c r="F13" s="148">
         <v>20</v>
       </c>
       <c r="G13" s="44" t="s">
@@ -6014,11 +6014,11 @@
       <c r="E14" s="45">
         <v>15</v>
       </c>
-      <c r="F14" s="157"/>
+      <c r="F14" s="149"/>
       <c r="G14" s="27"/>
     </row>
     <row r="15" spans="2:7" ht="66" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="159" t="s">
+      <c r="B15" s="150" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="43" t="s">
@@ -6030,7 +6030,7 @@
       <c r="E15" s="41">
         <v>5</v>
       </c>
-      <c r="F15" s="149">
+      <c r="F15" s="152">
         <v>9</v>
       </c>
       <c r="G15" s="44" t="s">
@@ -6038,7 +6038,7 @@
       </c>
     </row>
     <row r="16" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="160"/>
+      <c r="B16" s="151"/>
       <c r="C16" s="43" t="s">
         <v>70</v>
       </c>
@@ -6048,7 +6048,7 @@
       <c r="E16" s="41">
         <v>4</v>
       </c>
-      <c r="F16" s="151"/>
+      <c r="F16" s="153"/>
       <c r="G16" s="40"/>
     </row>
     <row r="17" spans="2:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -6060,7 +6060,7 @@
       <c r="G17" s="27"/>
     </row>
     <row r="18" spans="2:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="161" t="s">
+      <c r="B18" s="154" t="s">
         <v>38</v>
       </c>
       <c r="C18" s="36" t="s">
@@ -6072,13 +6072,13 @@
       <c r="E18" s="38">
         <v>5</v>
       </c>
-      <c r="F18" s="163">
+      <c r="F18" s="156">
         <v>10</v>
       </c>
       <c r="G18" s="27"/>
     </row>
     <row r="19" spans="2:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="162"/>
+      <c r="B19" s="155"/>
       <c r="C19" s="36" t="s">
         <v>41</v>
       </c>
@@ -6088,7 +6088,7 @@
       <c r="E19" s="38">
         <v>5</v>
       </c>
-      <c r="F19" s="164"/>
+      <c r="F19" s="157"/>
       <c r="G19" s="27"/>
     </row>
     <row r="20" spans="2:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -6140,11 +6140,11 @@
       <c r="N22" s="29"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B23" s="158" t="s">
+      <c r="B23" s="147" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="158"/>
-      <c r="D23" s="158"/>
+      <c r="C23" s="147"/>
+      <c r="D23" s="147"/>
       <c r="E23" s="29"/>
       <c r="F23" s="29"/>
       <c r="G23" s="29"/>
@@ -6435,18 +6435,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="F9:F12"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="F18:F19"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="F9:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6509,7 +6509,7 @@
       <c r="G3" s="70"/>
     </row>
     <row r="4" spans="2:7" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="172" t="s">
+      <c r="B4" s="166" t="s">
         <v>128</v>
       </c>
       <c r="C4" s="43" t="s">
@@ -6524,12 +6524,12 @@
       <c r="F4" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="174" t="s">
+      <c r="G4" s="168" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="173"/>
+      <c r="B5" s="167"/>
       <c r="C5" s="43" t="s">
         <v>131</v>
       </c>
@@ -6542,10 +6542,10 @@
       <c r="F5" s="73">
         <v>15</v>
       </c>
-      <c r="G5" s="174"/>
+      <c r="G5" s="168"/>
     </row>
     <row r="6" spans="2:7" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="173"/>
+      <c r="B6" s="167"/>
       <c r="C6" s="43" t="s">
         <v>72</v>
       </c>
@@ -6558,10 +6558,10 @@
       <c r="F6" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="174"/>
+      <c r="G6" s="168"/>
     </row>
     <row r="7" spans="2:7" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="175" t="s">
+      <c r="B7" s="169" t="s">
         <v>93</v>
       </c>
       <c r="C7" s="43" t="s">
@@ -6573,13 +6573,13 @@
       <c r="E7" s="69">
         <v>10</v>
       </c>
-      <c r="F7" s="168">
+      <c r="F7" s="172">
         <v>25</v>
       </c>
       <c r="G7" s="70"/>
     </row>
     <row r="8" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="176"/>
+      <c r="B8" s="170"/>
       <c r="C8" s="43" t="s">
         <v>90</v>
       </c>
@@ -6589,11 +6589,11 @@
       <c r="E8" s="69">
         <v>10</v>
       </c>
-      <c r="F8" s="169"/>
+      <c r="F8" s="173"/>
       <c r="G8" s="70"/>
     </row>
     <row r="9" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="177"/>
+      <c r="B9" s="171"/>
       <c r="C9" s="43" t="s">
         <v>88</v>
       </c>
@@ -6603,11 +6603,11 @@
       <c r="E9" s="69">
         <v>5</v>
       </c>
-      <c r="F9" s="170"/>
+      <c r="F9" s="174"/>
       <c r="G9" s="70"/>
     </row>
     <row r="10" spans="2:7" ht="81.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="176" t="s">
+      <c r="B10" s="170" t="s">
         <v>77</v>
       </c>
       <c r="C10" s="43" t="s">
@@ -6619,13 +6619,13 @@
       <c r="E10" s="77">
         <v>8</v>
       </c>
-      <c r="F10" s="178">
+      <c r="F10" s="175">
         <v>36</v>
       </c>
       <c r="G10" s="70"/>
     </row>
     <row r="11" spans="2:7" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="176"/>
+      <c r="B11" s="170"/>
       <c r="C11" s="43" t="s">
         <v>139</v>
       </c>
@@ -6635,11 +6635,11 @@
       <c r="E11" s="77">
         <v>8</v>
       </c>
-      <c r="F11" s="179"/>
+      <c r="F11" s="176"/>
       <c r="G11" s="70"/>
     </row>
     <row r="12" spans="2:7" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="176"/>
+      <c r="B12" s="170"/>
       <c r="C12" s="43" t="s">
         <v>141</v>
       </c>
@@ -6649,11 +6649,11 @@
       <c r="E12" s="77">
         <v>15</v>
       </c>
-      <c r="F12" s="179"/>
+      <c r="F12" s="176"/>
       <c r="G12" s="70"/>
     </row>
     <row r="13" spans="2:7" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="177"/>
+      <c r="B13" s="171"/>
       <c r="C13" s="43" t="s">
         <v>30</v>
       </c>
@@ -6663,11 +6663,11 @@
       <c r="E13" s="77">
         <v>5</v>
       </c>
-      <c r="F13" s="180"/>
+      <c r="F13" s="177"/>
       <c r="G13" s="70"/>
     </row>
     <row r="14" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="166" t="s">
+      <c r="B14" s="179" t="s">
         <v>86</v>
       </c>
       <c r="C14" s="43" t="s">
@@ -6679,13 +6679,13 @@
       <c r="E14" s="69">
         <v>5</v>
       </c>
-      <c r="F14" s="168">
+      <c r="F14" s="172">
         <v>15</v>
       </c>
       <c r="G14" s="70"/>
     </row>
     <row r="15" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="166"/>
+      <c r="B15" s="179"/>
       <c r="C15" s="43" t="s">
         <v>145</v>
       </c>
@@ -6695,11 +6695,11 @@
       <c r="E15" s="69">
         <v>5</v>
       </c>
-      <c r="F15" s="169"/>
+      <c r="F15" s="173"/>
       <c r="G15" s="70"/>
     </row>
     <row r="16" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="167"/>
+      <c r="B16" s="180"/>
       <c r="C16" s="43" t="s">
         <v>79</v>
       </c>
@@ -6709,7 +6709,7 @@
       <c r="E16" s="69">
         <v>5</v>
       </c>
-      <c r="F16" s="170"/>
+      <c r="F16" s="174"/>
       <c r="G16" s="70"/>
     </row>
     <row r="17" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -6765,62 +6765,56 @@
       <c r="G20" s="70"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="158" t="s">
+      <c r="B21" s="147" t="s">
         <v>150</v>
       </c>
-      <c r="C21" s="158"/>
-      <c r="D21" s="158"/>
+      <c r="C21" s="147"/>
+      <c r="D21" s="147"/>
     </row>
     <row r="22" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="171" t="s">
+      <c r="B22" s="181" t="s">
         <v>151</v>
       </c>
-      <c r="C22" s="171"/>
-      <c r="D22" s="171"/>
+      <c r="C22" s="181"/>
+      <c r="D22" s="181"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B23" s="165" t="s">
+      <c r="B23" s="178" t="s">
         <v>152</v>
       </c>
-      <c r="C23" s="165"/>
-      <c r="D23" s="165"/>
+      <c r="C23" s="178"/>
+      <c r="D23" s="178"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B24" s="165" t="s">
+      <c r="B24" s="178" t="s">
         <v>153</v>
       </c>
-      <c r="C24" s="165"/>
-      <c r="D24" s="165"/>
+      <c r="C24" s="178"/>
+      <c r="D24" s="178"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B25" s="165" t="s">
+      <c r="B25" s="178" t="s">
         <v>154</v>
       </c>
-      <c r="C25" s="165"/>
-      <c r="D25" s="165"/>
+      <c r="C25" s="178"/>
+      <c r="D25" s="178"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B26" s="165" t="s">
+      <c r="B26" s="178" t="s">
         <v>155</v>
       </c>
-      <c r="C26" s="165"/>
-      <c r="D26" s="165"/>
+      <c r="C26" s="178"/>
+      <c r="D26" s="178"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B27" s="165" t="s">
+      <c r="B27" s="178" t="s">
         <v>156</v>
       </c>
-      <c r="C27" s="165"/>
-      <c r="D27" s="165"/>
+      <c r="C27" s="178"/>
+      <c r="D27" s="178"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="F10:F13"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B27:D27"/>
@@ -6830,6 +6824,12 @@
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="F10:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6890,7 +6890,7 @@
       </c>
     </row>
     <row r="4" spans="2:7" ht="24.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="183" t="s">
+      <c r="B4" s="182" t="s">
         <v>174</v>
       </c>
       <c r="C4" s="43" t="s">
@@ -6902,15 +6902,15 @@
       <c r="E4" s="96">
         <v>7</v>
       </c>
-      <c r="F4" s="185">
+      <c r="F4" s="184">
         <v>15</v>
       </c>
-      <c r="G4" s="174" t="s">
+      <c r="G4" s="168" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="79" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="184"/>
+      <c r="B5" s="183"/>
       <c r="C5" s="97" t="s">
         <v>72</v>
       </c>
@@ -6920,11 +6920,11 @@
       <c r="E5" s="98">
         <v>8</v>
       </c>
-      <c r="F5" s="186"/>
-      <c r="G5" s="174"/>
+      <c r="F5" s="185"/>
+      <c r="G5" s="168"/>
     </row>
     <row r="6" spans="2:7" ht="40" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="172" t="s">
+      <c r="B6" s="166" t="s">
         <v>177</v>
       </c>
       <c r="C6" s="99" t="s">
@@ -6936,12 +6936,12 @@
       <c r="E6" s="101">
         <v>10</v>
       </c>
-      <c r="F6" s="188">
+      <c r="F6" s="187">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="173"/>
+      <c r="B7" s="167"/>
       <c r="C7" s="102" t="s">
         <v>90</v>
       </c>
@@ -6951,10 +6951,10 @@
       <c r="E7" s="101">
         <v>10</v>
       </c>
-      <c r="F7" s="189"/>
+      <c r="F7" s="188"/>
     </row>
     <row r="8" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="187"/>
+      <c r="B8" s="186"/>
       <c r="C8" s="102" t="s">
         <v>88</v>
       </c>
@@ -6964,10 +6964,10 @@
       <c r="E8" s="101">
         <v>5</v>
       </c>
-      <c r="F8" s="190"/>
+      <c r="F8" s="189"/>
     </row>
     <row r="9" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="191" t="s">
+      <c r="B9" s="190" t="s">
         <v>178</v>
       </c>
       <c r="C9" s="97" t="s">
@@ -6976,26 +6976,26 @@
       <c r="D9" s="95" t="s">
         <v>180</v>
       </c>
-      <c r="E9" s="194">
+      <c r="E9" s="193">
         <v>15</v>
       </c>
-      <c r="F9" s="194">
+      <c r="F9" s="193">
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="92" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="192"/>
+      <c r="B10" s="191"/>
       <c r="C10" s="97" t="s">
         <v>181</v>
       </c>
       <c r="D10" s="95" t="s">
         <v>182</v>
       </c>
-      <c r="E10" s="195"/>
-      <c r="F10" s="196"/>
+      <c r="E10" s="194"/>
+      <c r="F10" s="195"/>
     </row>
     <row r="11" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="192"/>
+      <c r="B11" s="191"/>
       <c r="C11" s="43" t="s">
         <v>141</v>
       </c>
@@ -7005,10 +7005,10 @@
       <c r="E11" s="104">
         <v>15</v>
       </c>
-      <c r="F11" s="196"/>
+      <c r="F11" s="195"/>
     </row>
     <row r="12" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="193"/>
+      <c r="B12" s="192"/>
       <c r="C12" s="43" t="s">
         <v>30</v>
       </c>
@@ -7018,10 +7018,10 @@
       <c r="E12" s="96">
         <v>5</v>
       </c>
-      <c r="F12" s="195"/>
+      <c r="F12" s="194"/>
     </row>
     <row r="13" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="183" t="s">
+      <c r="B13" s="182" t="s">
         <v>86</v>
       </c>
       <c r="C13" s="102" t="s">
@@ -7033,12 +7033,12 @@
       <c r="E13" s="105">
         <v>4</v>
       </c>
-      <c r="F13" s="188">
+      <c r="F13" s="187">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="197"/>
+      <c r="B14" s="196"/>
       <c r="C14" s="102" t="s">
         <v>83</v>
       </c>
@@ -7048,10 +7048,10 @@
       <c r="E14" s="105">
         <v>4</v>
       </c>
-      <c r="F14" s="189"/>
+      <c r="F14" s="188"/>
     </row>
     <row r="15" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="197"/>
+      <c r="B15" s="196"/>
       <c r="C15" s="102" t="s">
         <v>81</v>
       </c>
@@ -7061,10 +7061,10 @@
       <c r="E15" s="105">
         <v>4</v>
       </c>
-      <c r="F15" s="189"/>
+      <c r="F15" s="188"/>
     </row>
     <row r="16" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="198"/>
+      <c r="B16" s="197"/>
       <c r="C16" s="99" t="s">
         <v>79</v>
       </c>
@@ -7074,7 +7074,7 @@
       <c r="E16" s="105">
         <v>4</v>
       </c>
-      <c r="F16" s="190"/>
+      <c r="F16" s="189"/>
     </row>
     <row r="17" spans="2:9" ht="92" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="107" t="s">
@@ -7146,88 +7146,88 @@
       <c r="F22" s="111"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B23" s="158" t="s">
+      <c r="B23" s="147" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="158"/>
-      <c r="D23" s="158"/>
+      <c r="C23" s="147"/>
+      <c r="D23" s="147"/>
       <c r="E23" s="110"/>
       <c r="F23" s="111"/>
     </row>
     <row r="24" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="171" t="s">
+      <c r="B24" s="181" t="s">
         <v>151</v>
       </c>
-      <c r="C24" s="171"/>
-      <c r="D24" s="171"/>
+      <c r="C24" s="181"/>
+      <c r="D24" s="181"/>
       <c r="E24" s="115"/>
       <c r="F24" s="115"/>
       <c r="G24" s="116"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B25" s="165" t="s">
+      <c r="B25" s="178" t="s">
         <v>188</v>
       </c>
-      <c r="C25" s="165"/>
-      <c r="D25" s="165"/>
+      <c r="C25" s="178"/>
+      <c r="D25" s="178"/>
       <c r="E25" s="110"/>
       <c r="F25" s="111"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B26" s="165" t="s">
+      <c r="B26" s="178" t="s">
         <v>153</v>
       </c>
-      <c r="C26" s="165"/>
-      <c r="D26" s="165"/>
+      <c r="C26" s="178"/>
+      <c r="D26" s="178"/>
       <c r="E26" s="110"/>
       <c r="F26" s="111"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B27" s="165" t="s">
+      <c r="B27" s="178" t="s">
         <v>154</v>
       </c>
-      <c r="C27" s="165"/>
-      <c r="D27" s="165"/>
+      <c r="C27" s="178"/>
+      <c r="D27" s="178"/>
       <c r="E27" s="110"/>
       <c r="F27" s="111"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B28" s="165" t="s">
+      <c r="B28" s="178" t="s">
         <v>155</v>
       </c>
-      <c r="C28" s="165"/>
-      <c r="D28" s="165"/>
+      <c r="C28" s="178"/>
+      <c r="D28" s="178"/>
       <c r="E28" s="110"/>
       <c r="F28" s="111"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B29" s="165" t="s">
+      <c r="B29" s="178" t="s">
         <v>156</v>
       </c>
-      <c r="C29" s="165"/>
-      <c r="D29" s="165"/>
+      <c r="C29" s="178"/>
+      <c r="D29" s="178"/>
       <c r="E29" s="110"/>
       <c r="F29" s="111"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B30" s="181"/>
-      <c r="C30" s="181"/>
-      <c r="D30" s="181"/>
-      <c r="E30" s="181"/>
-      <c r="F30" s="181"/>
-      <c r="G30" s="181"/>
-      <c r="H30" s="181"/>
-      <c r="I30" s="181"/>
+      <c r="B30" s="198"/>
+      <c r="C30" s="198"/>
+      <c r="D30" s="198"/>
+      <c r="E30" s="198"/>
+      <c r="F30" s="198"/>
+      <c r="G30" s="198"/>
+      <c r="H30" s="198"/>
+      <c r="I30" s="198"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B31" s="182"/>
-      <c r="C31" s="182"/>
-      <c r="D31" s="182"/>
-      <c r="E31" s="182"/>
-      <c r="F31" s="182"/>
-      <c r="G31" s="182"/>
-      <c r="H31" s="182"/>
-      <c r="I31" s="182"/>
+      <c r="B31" s="199"/>
+      <c r="C31" s="199"/>
+      <c r="D31" s="199"/>
+      <c r="E31" s="199"/>
+      <c r="F31" s="199"/>
+      <c r="G31" s="199"/>
+      <c r="H31" s="199"/>
+      <c r="I31" s="199"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B32" s="117"/>
@@ -7422,6 +7422,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="B31:I31"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="F4:F5"/>
@@ -7436,11 +7441,6 @@
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="B31:I31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7491,7 +7491,7 @@
       </c>
     </row>
     <row r="3" spans="2:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="199" t="s">
+      <c r="B3" s="200" t="s">
         <v>157</v>
       </c>
       <c r="C3" s="57" t="s">
@@ -7503,7 +7503,7 @@
       <c r="E3" s="59">
         <v>0.06</v>
       </c>
-      <c r="F3" s="202">
+      <c r="F3" s="203">
         <v>0.2</v>
       </c>
       <c r="G3" s="9" t="s">
@@ -7511,7 +7511,7 @@
       </c>
     </row>
     <row r="4" spans="2:7" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="200"/>
+      <c r="B4" s="201"/>
       <c r="C4" s="57" t="s">
         <v>9</v>
       </c>
@@ -7521,10 +7521,10 @@
       <c r="E4" s="59">
         <v>0.04</v>
       </c>
-      <c r="F4" s="203"/>
+      <c r="F4" s="204"/>
     </row>
     <row r="5" spans="2:7" ht="187" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="201"/>
+      <c r="B5" s="202"/>
       <c r="C5" s="57" t="s">
         <v>95</v>
       </c>
@@ -7534,10 +7534,10 @@
       <c r="E5" s="59">
         <v>0.1</v>
       </c>
-      <c r="F5" s="204"/>
+      <c r="F5" s="205"/>
     </row>
     <row r="6" spans="2:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="199" t="s">
+      <c r="B6" s="200" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="57" t="s">
@@ -7554,7 +7554,7 @@
       </c>
     </row>
     <row r="7" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="200"/>
+      <c r="B7" s="201"/>
       <c r="C7" s="57" t="s">
         <v>16</v>
       </c>
@@ -7567,7 +7567,7 @@
       <c r="F7" s="12"/>
     </row>
     <row r="8" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="200"/>
+      <c r="B8" s="201"/>
       <c r="C8" s="57" t="s">
         <v>18</v>
       </c>
@@ -7580,7 +7580,7 @@
       <c r="F8" s="12"/>
     </row>
     <row r="9" spans="2:7" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="201"/>
+      <c r="B9" s="202"/>
       <c r="C9" s="57" t="s">
         <v>20</v>
       </c>
@@ -7593,7 +7593,7 @@
       <c r="F9" s="12"/>
     </row>
     <row r="10" spans="2:7" ht="27.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="205" t="s">
+      <c r="B10" s="206" t="s">
         <v>113</v>
       </c>
       <c r="C10" s="57" t="s">
@@ -7605,12 +7605,12 @@
       <c r="E10" s="59">
         <v>0.12</v>
       </c>
-      <c r="F10" s="202">
+      <c r="F10" s="203">
         <v>0.3</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="206"/>
+      <c r="B11" s="207"/>
       <c r="C11" s="81" t="s">
         <v>163</v>
       </c>
@@ -7620,13 +7620,13 @@
       <c r="E11" s="59">
         <v>0.1</v>
       </c>
-      <c r="F11" s="203"/>
+      <c r="F11" s="204"/>
       <c r="G11" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="207"/>
+      <c r="B12" s="208"/>
       <c r="C12" s="57" t="s">
         <v>165</v>
       </c>
@@ -7636,10 +7636,10 @@
       <c r="E12" s="59">
         <v>0.08</v>
       </c>
-      <c r="F12" s="204"/>
+      <c r="F12" s="205"/>
     </row>
     <row r="13" spans="2:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="199" t="s">
+      <c r="B13" s="200" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="57" t="s">
@@ -7651,12 +7651,12 @@
       <c r="E13" s="12">
         <v>0.06</v>
       </c>
-      <c r="F13" s="136">
+      <c r="F13" s="137">
         <v>0.2</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="200"/>
+      <c r="B14" s="201"/>
       <c r="C14" s="57" t="s">
         <v>32</v>
       </c>
@@ -7666,10 +7666,10 @@
       <c r="E14" s="12">
         <v>0.03</v>
       </c>
-      <c r="F14" s="137"/>
+      <c r="F14" s="138"/>
     </row>
     <row r="15" spans="2:7" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="200"/>
+      <c r="B15" s="201"/>
       <c r="C15" s="57" t="s">
         <v>34</v>
       </c>
@@ -7679,10 +7679,10 @@
       <c r="E15" s="12">
         <v>0.03</v>
       </c>
-      <c r="F15" s="137"/>
+      <c r="F15" s="138"/>
     </row>
     <row r="16" spans="2:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="201"/>
+      <c r="B16" s="202"/>
       <c r="C16" s="57" t="s">
         <v>36</v>
       </c>
@@ -7692,7 +7692,7 @@
       <c r="E16" s="12">
         <v>0.08</v>
       </c>
-      <c r="F16" s="138"/>
+      <c r="F16" s="139"/>
       <c r="G16" s="9" t="s">
         <v>8</v>
       </c>
@@ -7745,11 +7745,11 @@
       <c r="B21" s="1"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B22" s="145" t="s">
+      <c r="B22" s="146" t="s">
         <v>122</v>
       </c>
-      <c r="C22" s="145"/>
-      <c r="D22" s="145" t="s">
+      <c r="C22" s="146"/>
+      <c r="D22" s="146" t="s">
         <v>47</v>
       </c>
     </row>
@@ -7856,7 +7856,7 @@
       <c r="G2" s="54"/>
     </row>
     <row r="3" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="208" t="s">
+      <c r="B3" s="209" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="57" t="s">
@@ -7868,7 +7868,7 @@
       <c r="E3" s="59">
         <v>0.06</v>
       </c>
-      <c r="F3" s="202">
+      <c r="F3" s="203">
         <v>0.2</v>
       </c>
       <c r="G3" s="9" t="s">
@@ -7876,7 +7876,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="41.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="209"/>
+      <c r="B4" s="210"/>
       <c r="C4" s="57" t="s">
         <v>9</v>
       </c>
@@ -7886,10 +7886,10 @@
       <c r="E4" s="59">
         <v>0.04</v>
       </c>
-      <c r="F4" s="203"/>
+      <c r="F4" s="204"/>
     </row>
     <row r="5" spans="1:7" ht="82" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="210"/>
+      <c r="B5" s="211"/>
       <c r="C5" s="57" t="s">
         <v>11</v>
       </c>
@@ -7899,10 +7899,10 @@
       <c r="E5" s="59">
         <v>0.1</v>
       </c>
-      <c r="F5" s="204"/>
+      <c r="F5" s="205"/>
     </row>
     <row r="6" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="208" t="s">
+      <c r="B6" s="209" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="57" t="s">
@@ -7914,12 +7914,12 @@
       <c r="E6" s="12">
         <v>0.12</v>
       </c>
-      <c r="F6" s="136">
+      <c r="F6" s="137">
         <v>0.3</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="209"/>
+      <c r="B7" s="210"/>
       <c r="C7" s="57" t="s">
         <v>16</v>
       </c>
@@ -7929,10 +7929,10 @@
       <c r="E7" s="12">
         <v>0.09</v>
       </c>
-      <c r="F7" s="137"/>
+      <c r="F7" s="138"/>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="209"/>
+      <c r="B8" s="210"/>
       <c r="C8" s="57" t="s">
         <v>18</v>
       </c>
@@ -7942,10 +7942,10 @@
       <c r="E8" s="12">
         <v>0.05</v>
       </c>
-      <c r="F8" s="137"/>
+      <c r="F8" s="138"/>
     </row>
     <row r="9" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="210"/>
+      <c r="B9" s="211"/>
       <c r="C9" s="57" t="s">
         <v>20</v>
       </c>
@@ -7955,10 +7955,10 @@
       <c r="E9" s="12">
         <v>0.04</v>
       </c>
-      <c r="F9" s="138"/>
+      <c r="F9" s="139"/>
     </row>
     <row r="10" spans="1:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="208" t="s">
+      <c r="B10" s="209" t="s">
         <v>113</v>
       </c>
       <c r="C10" s="57" t="s">
@@ -7970,12 +7970,12 @@
       <c r="E10" s="59">
         <v>0.1</v>
       </c>
-      <c r="F10" s="202">
+      <c r="F10" s="203">
         <v>0.3</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="50.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="209"/>
+      <c r="B11" s="210"/>
       <c r="C11" s="57" t="s">
         <v>115</v>
       </c>
@@ -7985,13 +7985,13 @@
       <c r="E11" s="59">
         <v>0.1</v>
       </c>
-      <c r="F11" s="203"/>
+      <c r="F11" s="204"/>
       <c r="G11" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="210"/>
+      <c r="B12" s="211"/>
       <c r="C12" s="57" t="s">
         <v>117</v>
       </c>
@@ -8001,10 +8001,10 @@
       <c r="E12" s="59">
         <v>0.1</v>
       </c>
-      <c r="F12" s="204"/>
+      <c r="F12" s="205"/>
     </row>
     <row r="13" spans="1:7" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="208" t="s">
+      <c r="B13" s="209" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="57" t="s">
@@ -8016,12 +8016,12 @@
       <c r="E13" s="12">
         <v>0.08</v>
       </c>
-      <c r="F13" s="136">
+      <c r="F13" s="137">
         <v>0.2</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="209"/>
+      <c r="B14" s="210"/>
       <c r="C14" s="57" t="s">
         <v>32</v>
       </c>
@@ -8031,10 +8031,10 @@
       <c r="E14" s="12">
         <v>0.02</v>
       </c>
-      <c r="F14" s="137"/>
+      <c r="F14" s="138"/>
     </row>
     <row r="15" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="209"/>
+      <c r="B15" s="210"/>
       <c r="C15" s="57" t="s">
         <v>34</v>
       </c>
@@ -8044,10 +8044,10 @@
       <c r="E15" s="12">
         <v>0.02</v>
       </c>
-      <c r="F15" s="137"/>
+      <c r="F15" s="138"/>
     </row>
     <row r="16" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="209"/>
+      <c r="B16" s="210"/>
       <c r="C16" s="57" t="s">
         <v>36</v>
       </c>
@@ -8057,7 +8057,7 @@
       <c r="E16" s="12">
         <v>0.08</v>
       </c>
-      <c r="F16" s="138"/>
+      <c r="F16" s="139"/>
       <c r="G16" s="9" t="s">
         <v>8</v>
       </c>
@@ -8093,11 +8093,11 @@
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="2:6" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="145" t="s">
+      <c r="B20" s="146" t="s">
         <v>122</v>
       </c>
-      <c r="C20" s="145"/>
-      <c r="D20" s="145" t="s">
+      <c r="C20" s="146"/>
+      <c r="D20" s="146" t="s">
         <v>47</v>
       </c>
       <c r="E20" s="2"/>
